--- a/Results/Calculation/dp-fasttext.xlsx
+++ b/Results/Calculation/dp-fasttext.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="G2">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>171</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>46</v>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>256</v>
@@ -499,7 +499,7 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0.6899999999999999</v>
@@ -511,7 +511,7 @@
         <v>0.72</v>
       </c>
       <c r="I4">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,16 +522,16 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>73</v>
       </c>
       <c r="F5">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G5">
         <v>0.44</v>
@@ -540,7 +540,7 @@
         <v>0.49</v>
       </c>
       <c r="I5">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
